--- a/ContrastVariation/DDM_ContrastVariation.xlsx
+++ b/ContrastVariation/DDM_ContrastVariation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreashlarsen/Seafile/PostDocSund/Teaching/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreashlarsen/Seafile/PostDocSund/Teaching/2023/sastutorials-beta-main/ContrastVariation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E861BC75-F9AB-A740-9C11-908CD1AA8164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0672225-C30B-304E-8E29-D6275A9BEE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22040" yWindow="5160" windowWidth="27640" windowHeight="16940" xr2:uid="{E74035E8-3017-E748-B8F3-02E3C2BC64D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>D2O</t>
   </si>
@@ -148,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -210,12 +210,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A288169E-4EB3-5841-8DFE-271261988013}">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,6 +834,144 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>6.6710000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>6.6459999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>5.8029999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
